--- a/알 분류표.xlsx
+++ b/알 분류표.xlsx
@@ -86,12 +86,268 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>온도가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> -10~-3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까지는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곤충계통</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, -2 ~ +3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까지는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>야수계통</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, +4 ~ +10</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>까지는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식물계통에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적합한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>환경임을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고려하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마왕쟁탈전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +426,190 @@
   </si>
   <si>
     <t>악마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계통별 등장확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물
+곤충
+야수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물 33
+곤충 33
+야수 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물
+곤충
+야수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하모니아 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오키드 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>델피누스 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시둠 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포미카 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유바투스 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌고래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불개미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영지버섯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모프서스 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠똥구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라시오투스 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시퍼 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스퍼 알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 60
+나머지는 식물, 곤충, 야수 같은 확률로 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 80
+나머지는 식물, 곤충, 야수 같은 확률로 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 100
+나머지는 식물, 곤충, 야수 같은 확률로 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕쟁탈전
+판매가 10000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕쟁탈전
+판매가 15000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕쟁탈전
+판매가 20000G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적 온,습도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대치거나 최소치인 경우 최적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, -7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8, -5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +648,38 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,11 +703,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,7 +1532,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1060,6 +1546,39 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1089,22 +1608,22 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1112,40 +1631,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1189,9 +1708,123 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:13" ht="44.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="9" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/알 분류표.xlsx
+++ b/알 분류표.xlsx
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,94 @@
   </si>
   <si>
     <t>2, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:0
+안정성:0
+도박성:0
+기품:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:5
+안정성:20
+도박성:0
+기품:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:0
+안정성:25
+도박성:0
+기품:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:0
+안정성:25
+도박성:5
+기품:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:30
+안정성:0
+도박성:10
+기품:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:10
+안정성:35
+도박성:5
+기품:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:40
+안정성:10
+도박성:15
+기품:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:30
+안정성:40
+도박성:10
+기품:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:45
+안정성:10
+도박성:20
+기품:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:50
+안정성:20
+도박성:20
+기품:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:60
+안정성:30
+도박성:20
+기품:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악성:70
+안정성:30
+도박성:20
+기품:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1790,42 +1881,82 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:13" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.45"/>
